--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2204.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2204.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.011057736710454</v>
+        <v>0.9208168983459473</v>
       </c>
       <c r="B1">
-        <v>1.708905395835273</v>
+        <v>2.01803731918335</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>8.919893264770508</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.850359201431274</v>
       </c>
       <c r="E1">
-        <v>1.066810011450797</v>
+        <v>1.426436424255371</v>
       </c>
     </row>
   </sheetData>
